--- a/data/trans_dic/P36BPD07_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Provincia-trans_dic.xlsx
@@ -609,22 +609,22 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8394695688590652</v>
+        <v>0.1605304311409348</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8290933495830164</v>
+        <v>0.1709066504169837</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8626831211977712</v>
+        <v>0.1373168788022287</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8584214168302904</v>
+        <v>0.1415785831697095</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.8509755541038273</v>
+        <v>0.1490244458961727</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.8436930681239582</v>
+        <v>0.156306931876042</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7911762986602459</v>
+        <v>0.1184587896655663</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7745876452734481</v>
+        <v>0.1275345930791149</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8221452757058675</v>
+        <v>0.1014838739335189</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.811647905262767</v>
+        <v>0.1066439116363026</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8177078019551473</v>
+        <v>0.1179259444387368</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8111611254108086</v>
+        <v>0.1263790030045674</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8815412103344337</v>
+        <v>0.2088237013397542</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8724654069208851</v>
+        <v>0.2254123547265519</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8985161260664809</v>
+        <v>0.1778547242941325</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8933560883636974</v>
+        <v>0.1883520947372331</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8820740555612633</v>
+        <v>0.1822921980448527</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8736209969954327</v>
+        <v>0.1888388745891913</v>
       </c>
     </row>
     <row r="7">
@@ -691,22 +691,22 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.838480440913126</v>
+        <v>0.161519559086874</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7993895096458267</v>
+        <v>0.2006104903541734</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.882042975128809</v>
+        <v>0.1179570248711909</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8133978298015275</v>
+        <v>0.1866021701984724</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8606447501867635</v>
+        <v>0.1393552498132365</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.8064868400739442</v>
+        <v>0.1935131599260557</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8016041716734771</v>
+        <v>0.1321183405726789</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7475212242402717</v>
+        <v>0.1602153772732618</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8495755248148424</v>
+        <v>0.0928008737885241</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7815388778552137</v>
+        <v>0.1559061561024023</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8379957700997985</v>
+        <v>0.1189065347222049</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7753911269822974</v>
+        <v>0.1682677443451743</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8678816594273211</v>
+        <v>0.1983958283265229</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8397846227267384</v>
+        <v>0.2524787757597275</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9071991262114758</v>
+        <v>0.1504244751851574</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8440938438975978</v>
+        <v>0.218461122144786</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.881093465277795</v>
+        <v>0.1620042299002014</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8317322556548256</v>
+        <v>0.2246088730177027</v>
       </c>
     </row>
     <row r="10">
@@ -773,22 +773,22 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9579628493317854</v>
+        <v>0.04203715066821461</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8029619346844096</v>
+        <v>0.1970380653155904</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9827447452836526</v>
+        <v>0.01725525471634732</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8825625065372255</v>
+        <v>0.1174374934627747</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.970779749600766</v>
+        <v>0.02922025039923405</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.8451692482997882</v>
+        <v>0.1548307517002118</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9317429256915447</v>
+        <v>0.02365661706835542</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7531583783862664</v>
+        <v>0.1569891805490465</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9631526717643591</v>
+        <v>0.005925074507870304</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.85358503288068</v>
+        <v>0.08895768285753812</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9560936843075487</v>
+        <v>0.01898230203823215</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.814001638342758</v>
+        <v>0.1305629049261417</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9763433829316446</v>
+        <v>0.06825707430845539</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8430108194509536</v>
+        <v>0.2468416216137335</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9940749254921297</v>
+        <v>0.03684732823564084</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9110423171424618</v>
+        <v>0.1464149671193202</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9810176979617679</v>
+        <v>0.04390631569245141</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8694370950738579</v>
+        <v>0.1859983616572421</v>
       </c>
     </row>
     <row r="13">
@@ -855,22 +855,22 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.787826993349507</v>
+        <v>0.212173006650493</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8289656373048281</v>
+        <v>0.1710343626951719</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8398403997153137</v>
+        <v>0.1601596002846863</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8471807824450327</v>
+        <v>0.1528192175549671</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.814315858840893</v>
+        <v>0.1856841411591071</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.838620480681697</v>
+        <v>0.1613795193183027</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7434182991843619</v>
+        <v>0.1710300046318554</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7577886794479127</v>
+        <v>0.1245203335480586</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8007216580561409</v>
+        <v>0.1259312713488877</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8043131427197062</v>
+        <v>0.1199461384351705</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7829182578746563</v>
+        <v>0.1607036552702829</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7996677306088502</v>
+        <v>0.1335522771649526</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8289699953681445</v>
+        <v>0.2565817008156382</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8754796664519414</v>
+        <v>0.2422113205520873</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8740687286511124</v>
+        <v>0.199278341943859</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8800538615648293</v>
+        <v>0.1956868572802938</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.839296344729717</v>
+        <v>0.2170817421253437</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8664477228350478</v>
+        <v>0.2003322693911497</v>
       </c>
     </row>
     <row r="16">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8125547930214667</v>
+        <v>0.1874452069785333</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7636584670177009</v>
+        <v>0.2363415329822989</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8617687284060181</v>
+        <v>0.1382312715939819</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8717825912046592</v>
+        <v>0.1282174087953409</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.8375834721932911</v>
+        <v>0.1624165278067089</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.8203654062276808</v>
+        <v>0.1796345937723191</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7501728184328849</v>
+        <v>0.137567960147243</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7058364558161567</v>
+        <v>0.1854783685649524</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8095867519345271</v>
+        <v>0.09637001090674124</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8315882278289695</v>
+        <v>0.0983093342469782</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8008997411212347</v>
+        <v>0.1295168296228351</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7865765230604634</v>
+        <v>0.1515901233740616</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.862432039852757</v>
+        <v>0.2498271815671151</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8145216314350475</v>
+        <v>0.2941635441838432</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9036299890932588</v>
+        <v>0.1904132480654729</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9016906657530217</v>
+        <v>0.1684117721710305</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8704831703771647</v>
+        <v>0.1991002588787651</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8484098766259383</v>
+        <v>0.2134234769395373</v>
       </c>
     </row>
     <row r="19">
@@ -1019,22 +1019,22 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.8675569923728664</v>
+        <v>0.1324430076271336</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.8574445546887415</v>
+        <v>0.1425554453112586</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9120875236244482</v>
+        <v>0.08791247637555179</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9276461408209278</v>
+        <v>0.07235385917907236</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.890237138261197</v>
+        <v>0.109762861738803</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.8920884632544399</v>
+        <v>0.1079115367455602</v>
       </c>
     </row>
     <row r="20">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8212489497118534</v>
+        <v>0.09366516047184081</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.813046705651593</v>
+        <v>0.1067374263396174</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8743670818207041</v>
+        <v>0.05970561860314862</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9011888909755676</v>
+        <v>0.04910173602078613</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8626083293044865</v>
+        <v>0.08357533755835692</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8649255439219981</v>
+        <v>0.0866283079857896</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9063348395281592</v>
+        <v>0.1787510502881468</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8932625736603829</v>
+        <v>0.1869532943484073</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9402943813968513</v>
+        <v>0.1256329181792958</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.950898263979214</v>
+        <v>0.09881110902443239</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9164246624416432</v>
+        <v>0.1373916706955138</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9133716920142103</v>
+        <v>0.1350744560780019</v>
       </c>
     </row>
     <row r="22">
@@ -1101,22 +1101,22 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.8547072821362717</v>
+        <v>0.1452927178637283</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8057614411390557</v>
+        <v>0.1942385588609443</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8187393713675947</v>
+        <v>0.1812606286324054</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8123289069052965</v>
+        <v>0.1876710930947035</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.836273030359431</v>
+        <v>0.163726969640569</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.8091629226875562</v>
+        <v>0.1908370773124439</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8238077989190159</v>
+        <v>0.1195884948896429</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7655260267657762</v>
+        <v>0.1583922490833171</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7843853959052872</v>
+        <v>0.1561151267913923</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7799143421228507</v>
+        <v>0.1626909598578897</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8169471122195028</v>
+        <v>0.1412420963427919</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7815228510940716</v>
+        <v>0.1709769933915931</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8804115051103572</v>
+        <v>0.1761922010809841</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8416077509166828</v>
+        <v>0.2344739732342236</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8438848732086078</v>
+        <v>0.2156146040947134</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8373090401421102</v>
+        <v>0.2200856578771491</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8587579036572081</v>
+        <v>0.1830528877804972</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8290230066084071</v>
+        <v>0.218477148905929</v>
       </c>
     </row>
     <row r="25">
@@ -1183,22 +1183,22 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.8210714553583246</v>
+        <v>0.1789285446416754</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.3808858006661132</v>
+        <v>0.619114199333887</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.8517736255203376</v>
+        <v>0.1482263744796623</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.4717900876531076</v>
+        <v>0.5282099123468923</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.8369171926928655</v>
+        <v>0.1630828073071345</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.4272616427255709</v>
+        <v>0.5727383572744291</v>
       </c>
     </row>
     <row r="26">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7892131194443311</v>
+        <v>0.1527932670101311</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3481198236458163</v>
+        <v>0.581231135714163</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8246006508087139</v>
+        <v>0.1234212489897828</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4403305089321536</v>
+        <v>0.4997087249076819</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.8176080325506887</v>
+        <v>0.1455675825665619</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.4023668814840501</v>
+        <v>0.5479555722123428</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8472067329898689</v>
+        <v>0.2107868805556688</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4187688642858369</v>
+        <v>0.6518801763541836</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8765787510102172</v>
+        <v>0.1753993491912861</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5002912750923182</v>
+        <v>0.5596694910678465</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.8544324174334373</v>
+        <v>0.1823919674493112</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4520444277876573</v>
+        <v>0.59763311851595</v>
       </c>
     </row>
     <row r="28">
@@ -1265,22 +1265,22 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.8438791997723469</v>
+        <v>0.1561208002276531</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.7146499039022403</v>
+        <v>0.2853500960977597</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.8673042737394177</v>
+        <v>0.1326957262605824</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.7629927594309129</v>
+        <v>0.2370072405690868</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>0.8558485756066168</v>
+        <v>0.1441514243933832</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.7394888494351726</v>
+        <v>0.2605111505648273</v>
       </c>
     </row>
     <row r="29">
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8300347387695119</v>
+        <v>0.1441984319328135</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6966597060309331</v>
+        <v>0.2683177184577972</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8546303683740382</v>
+        <v>0.1218555774801523</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.7501236290674956</v>
+        <v>0.2236564150196443</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.8468002539047055</v>
+        <v>0.135277739442386</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.7287051586462991</v>
+        <v>0.2498869857498086</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8558015680671867</v>
+        <v>0.1699652612304881</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7316822815422028</v>
+        <v>0.3033402939690669</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8781444225198477</v>
+        <v>0.1453696316259617</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.7763435849803556</v>
+        <v>0.2498763709325044</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.864722260557614</v>
+        <v>0.1531997460952944</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.7501130142501912</v>
+        <v>0.2712948413537006</v>
       </c>
     </row>
     <row r="31">
@@ -1471,22 +1471,22 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>282</v>
+        <v>49</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>482</v>
+        <v>56</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>764</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
@@ -1497,22 +1497,22 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>246603</v>
+        <v>47158</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>264352</v>
+        <v>54493</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>249059</v>
+        <v>39644</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>271314</v>
+        <v>44747</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>495663</v>
+        <v>86801</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>535666</v>
+        <v>99240</v>
       </c>
     </row>
     <row r="6">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>232417</v>
+        <v>34799</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>246973</v>
+        <v>40664</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>237356</v>
+        <v>29299</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>256530</v>
+        <v>33706</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>476285</v>
+        <v>68688</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>515011</v>
+        <v>80239</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>258962</v>
+        <v>61344</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>278181</v>
+        <v>71872</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>259404</v>
+        <v>51347</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>282355</v>
+        <v>59531</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>513776</v>
+        <v>106179</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>554667</v>
+        <v>119895</v>
       </c>
     </row>
     <row r="8">
@@ -1579,22 +1579,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>311</v>
+        <v>71</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>423</v>
+        <v>59</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>588</v>
+        <v>127</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>822</v>
+        <v>135</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>899</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9">
@@ -1605,22 +1605,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>421399</v>
+        <v>81176</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>424194</v>
+        <v>106453</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>459163</v>
+        <v>61405</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>443265</v>
+        <v>101690</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>880564</v>
+        <v>142580</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>867459</v>
+        <v>208143</v>
       </c>
     </row>
     <row r="10">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>402866</v>
+        <v>66399</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>396670</v>
+        <v>85018</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>442262</v>
+        <v>48309</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>425904</v>
+        <v>84962</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>857390</v>
+        <v>121659</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>834012</v>
+        <v>180989</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>436176</v>
+        <v>99709</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>445629</v>
+        <v>133977</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>472259</v>
+        <v>78306</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>459993</v>
+        <v>119051</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>901485</v>
+        <v>165754</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>894613</v>
+        <v>241590</v>
       </c>
     </row>
     <row r="12">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>296</v>
+        <v>63</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>326</v>
+        <v>6</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>474</v>
+        <v>61</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>642</v>
+        <v>20</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>770</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
@@ -1713,22 +1713,22 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>300757</v>
+        <v>13198</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>253037</v>
+        <v>62092</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>330506</v>
+        <v>5803</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>313927</v>
+        <v>41772</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>631263</v>
+        <v>19001</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>566962</v>
+        <v>103865</v>
       </c>
     </row>
     <row r="14">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>292525</v>
+        <v>7427</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>237342</v>
+        <v>49472</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>323917</v>
+        <v>1993</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>303619</v>
+        <v>31642</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>621713</v>
+        <v>12344</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>546054</v>
+        <v>87585</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>306528</v>
+        <v>21430</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>265657</v>
+        <v>77787</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>334316</v>
+        <v>12392</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>324057</v>
+        <v>52080</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>637920</v>
+        <v>28551</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>583242</v>
+        <v>124773</v>
       </c>
     </row>
     <row r="16">
@@ -1795,22 +1795,22 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>296</v>
+        <v>60</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>533</v>
+        <v>64</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>574</v>
+        <v>136</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>783</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1821,22 +1821,22 @@
         </is>
       </c>
       <c r="C17" s="6" t="n">
-        <v>291468</v>
+        <v>78496</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>309324</v>
+        <v>63821</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>322449</v>
+        <v>61492</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>356542</v>
+        <v>64315</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>613917</v>
+        <v>139988</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>665866</v>
+        <v>128136</v>
       </c>
     </row>
     <row r="18">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>275038</v>
+        <v>63275</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>282765</v>
+        <v>46464</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>307430</v>
+        <v>48350</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>338501</v>
+        <v>50480</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>590246</v>
+        <v>121155</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>634938</v>
+        <v>106041</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>306689</v>
+        <v>94926</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>326681</v>
+        <v>90380</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>335591</v>
+        <v>76511</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>370377</v>
+        <v>82356</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>632750</v>
+        <v>163659</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>687961</v>
+        <v>159064</v>
       </c>
     </row>
     <row r="20">
@@ -1903,22 +1903,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>433</v>
+        <v>58</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>366</v>
+        <v>69</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>652</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
@@ -1929,22 +1929,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>171629</v>
+        <v>39592</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>157058</v>
+        <v>48607</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>188371</v>
+        <v>30216</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>197740</v>
+        <v>29083</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>360000</v>
+        <v>69808</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>354798</v>
+        <v>77690</v>
       </c>
     </row>
     <row r="22">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>158452</v>
+        <v>29057</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>145166</v>
+        <v>38146</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>176965</v>
+        <v>21065</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>188623</v>
+        <v>22299</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>344233</v>
+        <v>55667</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>340185</v>
+        <v>65561</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>182164</v>
+        <v>52769</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>167519</v>
+        <v>60499</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>197522</v>
+        <v>41622</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>204524</v>
+        <v>38200</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>374141</v>
+        <v>85575</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>366927</v>
+        <v>92303</v>
       </c>
     </row>
     <row r="24">
@@ -2011,22 +2011,22 @@
         </is>
       </c>
       <c r="C24" s="6" t="n">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>324</v>
+        <v>47</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>430</v>
+        <v>30</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>462</v>
+        <v>60</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>754</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>228274</v>
+        <v>34849</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>232116</v>
+        <v>38591</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>249105</v>
+        <v>24010</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>244667</v>
+        <v>19083</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>477379</v>
+        <v>58859</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>476783</v>
+        <v>57674</v>
       </c>
     </row>
     <row r="26">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>216089</v>
+        <v>24645</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>220097</v>
+        <v>28895</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>238803</v>
+        <v>16307</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>237689</v>
+        <v>12951</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>462563</v>
+        <v>44816</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>462266</v>
+        <v>46299</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>238478</v>
+        <v>47034</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>241812</v>
+        <v>50610</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>256808</v>
+        <v>34312</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>250799</v>
+        <v>26061</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>491422</v>
+        <v>73675</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>488158</v>
+        <v>72191</v>
       </c>
     </row>
     <row r="28">
@@ -2119,22 +2119,22 @@
         </is>
       </c>
       <c r="C28" s="6" t="n">
-        <v>484</v>
+        <v>84</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>491</v>
+        <v>105</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>512</v>
+        <v>121</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>797</v>
+        <v>160</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>996</v>
+        <v>205</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>1288</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
@@ -2145,22 +2145,22 @@
         </is>
       </c>
       <c r="C29" s="6" t="n">
-        <v>549436</v>
+        <v>93399</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>577405</v>
+        <v>139191</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>553347</v>
+        <v>122506</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>625411</v>
+        <v>144488</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>1102783</v>
+        <v>215905</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>1202817</v>
+        <v>283678</v>
       </c>
     </row>
     <row r="30">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>529572</v>
+        <v>76876</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>548573</v>
+        <v>113503</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>530129</v>
+        <v>105511</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>600455</v>
+        <v>125256</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1077298</v>
+        <v>186254</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1161730</v>
+        <v>254156</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>565959</v>
+        <v>113263</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>603093</v>
+        <v>168023</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>570342</v>
+        <v>145724</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>644643</v>
+        <v>169444</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1132434</v>
+        <v>241390</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1232339</v>
+        <v>324765</v>
       </c>
     </row>
     <row r="32">
@@ -2227,22 +2227,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>612</v>
+        <v>133</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>298</v>
+        <v>463</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>635</v>
+        <v>119</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>1247</v>
+        <v>252</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>805</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="33">
@@ -2253,22 +2253,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>635239</v>
+        <v>138432</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>303518</v>
+        <v>493355</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>702876</v>
+        <v>122315</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>391555</v>
+        <v>438379</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1338115</v>
+        <v>260747</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>695072</v>
+        <v>931735</v>
       </c>
     </row>
     <row r="34">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>610591</v>
+        <v>118212</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>277407</v>
+        <v>463167</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>680453</v>
+        <v>101846</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>365445</v>
+        <v>414725</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1307242</v>
+        <v>232742</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>654573</v>
+        <v>891418</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>655459</v>
+        <v>163080</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>333706</v>
+        <v>519466</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>723345</v>
+        <v>144738</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>415209</v>
+        <v>464489</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1366120</v>
+        <v>291620</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>735389</v>
+        <v>972234</v>
       </c>
     </row>
     <row r="36">
@@ -2335,22 +2335,22 @@
         </is>
       </c>
       <c r="C36" s="6" t="n">
-        <v>2712</v>
+        <v>497</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>2471</v>
+        <v>900</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>2860</v>
+        <v>460</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>4244</v>
+        <v>1109</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>5572</v>
+        <v>957</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>6715</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="37">
@@ -2361,22 +2361,22 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>2844806</v>
+        <v>526300</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>2521004</v>
+        <v>1006603</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>3054877</v>
+        <v>467390</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>2844420</v>
+        <v>883558</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>5899683</v>
+        <v>993690</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>5365424</v>
+        <v>1890161</v>
       </c>
     </row>
     <row r="38">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2798135</v>
+        <v>486108</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2457542</v>
+        <v>946519</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>3010236</v>
+        <v>429208</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2796444</v>
+        <v>833786</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>5837310</v>
+        <v>932520</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>5287182</v>
+        <v>1813076</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2884998</v>
+        <v>572971</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2581088</v>
+        <v>1070065</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3093059</v>
+        <v>512031</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2894192</v>
+        <v>931534</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>5960853</v>
+        <v>1056063</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>5442509</v>
+        <v>1968403</v>
       </c>
     </row>
     <row r="40">

--- a/data/trans_dic/P36BPD07_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Provincia-trans_dic.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
+          <t>Población que consume al menos una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1392,7 +1392,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
+          <t>Población que consume al menos una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P36BPD07_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Provincia-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1184587896655663</v>
+        <v>0.1155332456177855</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1275345930791149</v>
+        <v>0.1241841552923595</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1014838739335189</v>
+        <v>0.100032755495493</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1066439116363026</v>
+        <v>0.1041821063022887</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1179259444387368</v>
+        <v>0.121382393339755</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1263790030045674</v>
+        <v>0.129644799759861</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2088237013397542</v>
+        <v>0.2070750032949564</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2254123547265519</v>
+        <v>0.2238624374625979</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1778547242941325</v>
+        <v>0.1809692217185246</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1883520947372331</v>
+        <v>0.1825742008529872</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1822921980448527</v>
+        <v>0.1803879695199349</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1888388745891913</v>
+        <v>0.1874109487678881</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1321183405726789</v>
+        <v>0.1289332167412619</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1602153772732618</v>
+        <v>0.1608975828374646</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0928008737885241</v>
+        <v>0.09112565976862599</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1559061561024023</v>
+        <v>0.1536295036325853</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1189065347222049</v>
+        <v>0.1196045638096484</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1682677443451743</v>
+        <v>0.1670590151661571</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1983958283265229</v>
+        <v>0.1966620476134362</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2524787757597275</v>
+        <v>0.2503721960553443</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1504244751851574</v>
+        <v>0.1492772196242559</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.218461122144786</v>
+        <v>0.2207391189504112</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1620042299002014</v>
+        <v>0.1639707479806854</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2246088730177027</v>
+        <v>0.2189933263603202</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02365661706835542</v>
+        <v>0.02377910032268141</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1569891805490465</v>
+        <v>0.1554111970336588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005925074507870304</v>
+        <v>0.005894924858948608</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08895768285753812</v>
+        <v>0.09063880055214803</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01898230203823215</v>
+        <v>0.01803482258003393</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1305629049261417</v>
+        <v>0.1292881764476153</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06825707430845539</v>
+        <v>0.06967596292549072</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2468416216137335</v>
+        <v>0.2485977143403517</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03684732823564084</v>
+        <v>0.03458154933278217</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1464149671193202</v>
+        <v>0.1490860990264102</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04390631569245141</v>
+        <v>0.04345435949573008</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1859983616572421</v>
+        <v>0.1827009179268245</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1710300046318554</v>
+        <v>0.1703461551597856</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1245203335480586</v>
+        <v>0.1257532316496122</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1259312713488877</v>
+        <v>0.1270157033223639</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1199461384351705</v>
+        <v>0.1193479663034911</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1607036552702829</v>
+        <v>0.1579686328138978</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1335522771649526</v>
+        <v>0.1293843764763865</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2565817008156382</v>
+        <v>0.2586703822779098</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2422113205520873</v>
+        <v>0.228571059721795</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.199278341943859</v>
+        <v>0.1993242636793394</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1956868572802938</v>
+        <v>0.1971757264154881</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2170817421253437</v>
+        <v>0.2163429001884644</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2003322693911497</v>
+        <v>0.1953909389848504</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.137567960147243</v>
+        <v>0.1389435911855895</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1854783685649524</v>
+        <v>0.1843580113780026</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09637001090674124</v>
+        <v>0.09922715817598719</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0983093342469782</v>
+        <v>0.09925476872773006</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1295168296228351</v>
+        <v>0.1283759573884802</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1515901233740616</v>
+        <v>0.1496909946165326</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2498271815671151</v>
+        <v>0.2460160360913796</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2941635441838432</v>
+        <v>0.2971539438487811</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1904132480654729</v>
+        <v>0.1890079867752462</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1684117721710305</v>
+        <v>0.1679565964192535</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1991002588787651</v>
+        <v>0.199595595302475</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2134234769395373</v>
+        <v>0.2135385484640595</v>
       </c>
     </row>
     <row r="19">
@@ -1022,13 +1022,13 @@
         <v>0.1324430076271336</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.1425554453112586</v>
+        <v>0.1425554453112587</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.08791247637555179</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.07235385917907236</v>
+        <v>0.07235385917907235</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.109762861738803</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09366516047184081</v>
+        <v>0.09387506858694041</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1067374263396174</v>
+        <v>0.1088158004548014</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05970561860314862</v>
+        <v>0.05732401836581049</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04910173602078613</v>
+        <v>0.04973220132561058</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.08357533755835692</v>
+        <v>0.08560212707701083</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0866283079857896</v>
+        <v>0.08553971287280797</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1787510502881468</v>
+        <v>0.1730699055799339</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1869532943484073</v>
+        <v>0.1885026039536096</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1256329181792958</v>
+        <v>0.1242869858672905</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.09881110902443239</v>
+        <v>0.106990768834624</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1373916706955138</v>
+        <v>0.1371235563130024</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1350744560780019</v>
+        <v>0.133112380414255</v>
       </c>
     </row>
     <row r="22">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1195884948896429</v>
+        <v>0.1179727618719991</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1583922490833171</v>
+        <v>0.161646793650456</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1561151267913923</v>
+        <v>0.1540165234284024</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1626909598578897</v>
+        <v>0.1598654259463524</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1412420963427919</v>
+        <v>0.1435867137216274</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1709769933915931</v>
+        <v>0.1685201634604766</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1761922010809841</v>
+        <v>0.1734526793767776</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2344739732342236</v>
+        <v>0.2333851225988037</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2156146040947134</v>
+        <v>0.2101536325212499</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2200856578771491</v>
+        <v>0.2172808365770109</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1830528877804972</v>
+        <v>0.1854144848145379</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.218477148905929</v>
+        <v>0.2144509627338876</v>
       </c>
     </row>
     <row r="25">
@@ -1186,13 +1186,13 @@
         <v>0.1789285446416754</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.619114199333887</v>
+        <v>0.6191141993338869</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.1482263744796623</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.5282099123468923</v>
+        <v>0.5282099123468924</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.1630828073071345</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1527932670101311</v>
+        <v>0.1480410817396587</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.581231135714163</v>
+        <v>0.5816633365934016</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1234212489897828</v>
+        <v>0.1231363227995963</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4997087249076819</v>
+        <v>0.4964237241142272</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1455675825665619</v>
+        <v>0.1435327715436863</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.5479555722123428</v>
+        <v>0.5470810765788998</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2107868805556688</v>
+        <v>0.2057167357014527</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6518801763541836</v>
+        <v>0.6547023676976792</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1753993491912861</v>
+        <v>0.1746191520447891</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5596694910678465</v>
+        <v>0.5594267115593381</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1823919674493112</v>
+        <v>0.1809316240842554</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.59763311851595</v>
+        <v>0.5972187991483512</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>0.1326957262605824</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.2370072405690868</v>
+        <v>0.2370072405690869</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.1441514243933832</v>
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1441984319328135</v>
+        <v>0.1451792420774556</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2683177184577972</v>
+        <v>0.2684676746591798</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1218555774801523</v>
+        <v>0.1216447320098936</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2236564150196443</v>
+        <v>0.223871296456766</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.135277739442386</v>
+        <v>0.1347857076780693</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2498869857498086</v>
+        <v>0.2503173368161992</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1699652612304881</v>
+        <v>0.1698358363039179</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3033402939690669</v>
+        <v>0.3034880772338439</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1453696316259617</v>
+        <v>0.1446367205389713</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2498763709325044</v>
+        <v>0.2510821639430623</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1531997460952944</v>
+        <v>0.1520191913702149</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2712948413537006</v>
+        <v>0.2712698007998406</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>34799</v>
+        <v>33939</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>40664</v>
+        <v>39595</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>29299</v>
+        <v>28880</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>33706</v>
+        <v>32928</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>68688</v>
+        <v>70701</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>80239</v>
+        <v>82312</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>61344</v>
+        <v>60831</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>71872</v>
+        <v>71377</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>51347</v>
+        <v>52246</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>59531</v>
+        <v>57705</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>106179</v>
+        <v>105069</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>119895</v>
+        <v>118988</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>66399</v>
+        <v>64799</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>85018</v>
+        <v>85380</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>48309</v>
+        <v>47437</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>84962</v>
+        <v>83721</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>121659</v>
+        <v>122373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>180989</v>
+        <v>179689</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>99709</v>
+        <v>98837</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>133977</v>
+        <v>132859</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>78306</v>
+        <v>77709</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>119051</v>
+        <v>120293</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>165754</v>
+        <v>167766</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>241590</v>
+        <v>235550</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7427</v>
+        <v>7466</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>49472</v>
+        <v>48975</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1993</v>
+        <v>1983</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>31642</v>
+        <v>32240</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12344</v>
+        <v>11727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>87585</v>
+        <v>86730</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21430</v>
+        <v>21875</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>77787</v>
+        <v>78340</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12392</v>
+        <v>11630</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>52080</v>
+        <v>53030</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>28551</v>
+        <v>28257</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>124773</v>
+        <v>122561</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>63275</v>
+        <v>63022</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>46464</v>
+        <v>46924</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>48350</v>
+        <v>48767</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>50480</v>
+        <v>50228</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>121155</v>
+        <v>119093</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>106041</v>
+        <v>102731</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>94926</v>
+        <v>95699</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>90380</v>
+        <v>85290</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>76511</v>
+        <v>76529</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>82356</v>
+        <v>82983</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>163659</v>
+        <v>163102</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>159064</v>
+        <v>155141</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>29057</v>
+        <v>29348</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>38146</v>
+        <v>37916</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21065</v>
+        <v>21690</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>22299</v>
+        <v>22513</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>55667</v>
+        <v>55177</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>65561</v>
+        <v>64740</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>52769</v>
+        <v>51964</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>60499</v>
+        <v>61114</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>41622</v>
+        <v>41315</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>38200</v>
+        <v>38096</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>85575</v>
+        <v>85788</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>92303</v>
+        <v>92353</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>24645</v>
+        <v>24701</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>28895</v>
+        <v>29457</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>16307</v>
+        <v>15656</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>12951</v>
+        <v>13117</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>44816</v>
+        <v>45903</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>46299</v>
+        <v>45717</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>47034</v>
+        <v>45539</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>50610</v>
+        <v>51029</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>34312</v>
+        <v>33945</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>26061</v>
+        <v>28219</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>73675</v>
+        <v>73531</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>72191</v>
+        <v>71143</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>76876</v>
+        <v>75837</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>113503</v>
+        <v>115835</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>105511</v>
+        <v>104093</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>125256</v>
+        <v>123080</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>186254</v>
+        <v>189346</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>254156</v>
+        <v>250504</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>113263</v>
+        <v>111501</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>168023</v>
+        <v>167243</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>145724</v>
+        <v>142033</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>169444</v>
+        <v>167284</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>241390</v>
+        <v>244504</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>324765</v>
+        <v>318780</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>118212</v>
+        <v>114535</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>463167</v>
+        <v>463512</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>101846</v>
+        <v>101611</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>414725</v>
+        <v>411999</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>232742</v>
+        <v>229489</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>891418</v>
+        <v>889995</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>163080</v>
+        <v>159157</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>519466</v>
+        <v>521715</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>144738</v>
+        <v>144094</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>464489</v>
+        <v>464287</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>291620</v>
+        <v>289285</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>972234</v>
+        <v>971560</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>486108</v>
+        <v>489415</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>946519</v>
+        <v>947048</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>429208</v>
+        <v>428465</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>833786</v>
+        <v>834587</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>932520</v>
+        <v>929128</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1813076</v>
+        <v>1816199</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>572971</v>
+        <v>572535</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1070065</v>
+        <v>1070587</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>512031</v>
+        <v>509449</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>931534</v>
+        <v>936029</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1056063</v>
+        <v>1047925</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1968403</v>
+        <v>1968221</v>
       </c>
     </row>
     <row r="40">
